--- a/examples/unranked.xlsx
+++ b/examples/unranked.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <r>
       <rPr>
@@ -58,52 +58,52 @@
     <t>Operator</t>
   </si>
   <si>
-    <t>TheRealRinks</t>
-  </si>
-  <si>
-    <t>PULSE</t>
-  </si>
-  <si>
-    <t>RealFuseTV</t>
+    <t>holyman54</t>
+  </si>
+  <si>
+    <t>CAVEIRA</t>
+  </si>
+  <si>
+    <t>silly.watch</t>
   </si>
   <si>
     <t>JÄGER</t>
   </si>
   <si>
-    <t>Cptbullettime</t>
-  </si>
-  <si>
-    <t>MOZZIE</t>
-  </si>
-  <si>
-    <t>imZOZO420</t>
-  </si>
-  <si>
-    <t>KAPKAN</t>
-  </si>
-  <si>
-    <t>AnOriginalMango</t>
-  </si>
-  <si>
-    <t>SMOKE</t>
-  </si>
-  <si>
     <t>redraskal</t>
   </si>
   <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>Shives007</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>LiquoredUpNuts</t>
+  </si>
+  <si>
+    <t>ROOK</t>
+  </si>
+  <si>
+    <t>GothMommyThighs</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Eilifint.Ve</t>
-  </si>
-  <si>
-    <t>lwaxysl</t>
-  </si>
-  <si>
-    <t>PilotSeeker2140</t>
-  </si>
-  <si>
-    <t>holyman54</t>
+    <t>Sgt_Sugma.DBB</t>
+  </si>
+  <si>
+    <t>Lt_Ligma.DBB</t>
+  </si>
+  <si>
+    <t>Brig_Bofa.DBB</t>
+  </si>
+  <si>
+    <t>Obstinalir196</t>
   </si>
   <si>
     <r>
@@ -128,13 +128,13 @@
     <t>Winning team</t>
   </si>
   <si>
-    <t>YOUR TEAM [0]</t>
+    <t>YOUR TEAM [1]</t>
   </si>
   <si>
     <t>Opening kill</t>
   </si>
   <si>
-    <t>2:31</t>
+    <t>2:34</t>
   </si>
   <si>
     <t>Opening death</t>
@@ -156,22 +156,25 @@
     <t>Headshot</t>
   </si>
   <si>
-    <t>2:24</t>
-  </si>
-  <si>
-    <t>1:57</t>
-  </si>
-  <si>
-    <t>1:52</t>
-  </si>
-  <si>
-    <t>1:45</t>
-  </si>
-  <si>
-    <t>1:39</t>
-  </si>
-  <si>
-    <t>0:00</t>
+    <t>2:22</t>
+  </si>
+  <si>
+    <t>2:17</t>
+  </si>
+  <si>
+    <t>2:02</t>
+  </si>
+  <si>
+    <t>1:54</t>
+  </si>
+  <si>
+    <t>1:36</t>
+  </si>
+  <si>
+    <t>1:33</t>
+  </si>
+  <si>
+    <t>0:48</t>
   </si>
   <si>
     <r>
@@ -190,121 +193,94 @@
     <t>Player 2</t>
   </si>
   <si>
-    <t>MAESTRO</t>
-  </si>
-  <si>
-    <t>MUTE</t>
-  </si>
-  <si>
-    <t>2:08</t>
-  </si>
-  <si>
-    <t>2:01</t>
-  </si>
-  <si>
-    <t>1:53</t>
+    <t>ORYX</t>
+  </si>
+  <si>
+    <t>2:28</t>
+  </si>
+  <si>
+    <t>2:12</t>
+  </si>
+  <si>
+    <t>2:11</t>
+  </si>
+  <si>
+    <t>2:09</t>
+  </si>
+  <si>
+    <t>1:52</t>
+  </si>
+  <si>
+    <t>ALIBI</t>
+  </si>
+  <si>
+    <t>MOZZIE</t>
+  </si>
+  <si>
+    <t>GOYO</t>
+  </si>
+  <si>
+    <t>MELUSI</t>
+  </si>
+  <si>
+    <t>OPPONENTS [0]</t>
+  </si>
+  <si>
+    <t>2:55</t>
+  </si>
+  <si>
+    <t>2:16</t>
+  </si>
+  <si>
+    <t>2:13</t>
+  </si>
+  <si>
+    <t>0:59</t>
+  </si>
+  <si>
+    <t>0:53</t>
+  </si>
+  <si>
+    <t>0:47</t>
+  </si>
+  <si>
+    <t>0:40</t>
+  </si>
+  <si>
+    <t>0:09</t>
+  </si>
+  <si>
+    <t>VIGIL</t>
+  </si>
+  <si>
+    <t>2:39</t>
+  </si>
+  <si>
+    <t>2:05</t>
+  </si>
+  <si>
+    <t>1:50</t>
+  </si>
+  <si>
+    <t>CASTLE</t>
+  </si>
+  <si>
+    <t>2:00</t>
+  </si>
+  <si>
+    <t>1:26</t>
   </si>
   <si>
     <t>1:25</t>
   </si>
   <si>
+    <t>1:20</t>
+  </si>
+  <si>
     <t>1:19</t>
   </si>
   <si>
-    <t>1:11</t>
-  </si>
-  <si>
-    <t>1:07</t>
-  </si>
-  <si>
-    <t>VALKYRIE</t>
-  </si>
-  <si>
-    <t>ELA</t>
-  </si>
-  <si>
-    <t>FROST</t>
-  </si>
-  <si>
-    <t>OPPONENTS [1]</t>
-  </si>
-  <si>
-    <t>2:12</t>
-  </si>
-  <si>
-    <t>1:38</t>
-  </si>
-  <si>
-    <t>1:22</t>
-  </si>
-  <si>
-    <t>1:10</t>
-  </si>
-  <si>
-    <t>0:56</t>
-  </si>
-  <si>
-    <t>0:49</t>
-  </si>
-  <si>
-    <t>0:38</t>
-  </si>
-  <si>
-    <t>0:37</t>
-  </si>
-  <si>
-    <t>0:26</t>
-  </si>
-  <si>
-    <t>CASTLE</t>
-  </si>
-  <si>
-    <t>BANDIT</t>
-  </si>
-  <si>
-    <t>2:04</t>
-  </si>
-  <si>
-    <t>1:33</t>
-  </si>
-  <si>
-    <t>1:31</t>
-  </si>
-  <si>
-    <t>1:08</t>
-  </si>
-  <si>
-    <t>1:05</t>
-  </si>
-  <si>
-    <t>1:00</t>
-  </si>
-  <si>
-    <t>0:58</t>
-  </si>
-  <si>
-    <t>ORYX</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>THUNDERBIRD</t>
-  </si>
-  <si>
-    <t>2:56</t>
-  </si>
-  <si>
-    <t>2:27</t>
-  </si>
-  <si>
-    <t>2:02</t>
-  </si>
-  <si>
-    <t>1:47</t>
-  </si>
-  <si>
-    <t>1:36</t>
+    <t>1:17</t>
   </si>
   <si>
     <t>Rounds</t>
@@ -632,13 +608,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -661,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -670,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000</v>
+        <v>100.000</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -687,16 +663,16 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>50.000</v>
+        <v>33.333</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -713,19 +689,19 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000</v>
+        <v>100.000</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -739,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -748,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>66.667</v>
+        <v>50.000</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -762,22 +738,22 @@
         <v>1</v>
       </c>
       <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
       <c r="E7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>16.667</v>
+        <v>60.000</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -788,22 +764,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>50.000</v>
+      </c>
+      <c r="H8">
         <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0.000</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -817,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -826,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>77.778</v>
+        <v>80.000</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -843,19 +819,19 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>66.667</v>
+        <v>0.000</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -869,7 +845,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -878,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>50.000</v>
+        <v>66.667</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -895,19 +871,19 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>40.000</v>
+        <v>33.333</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -958,10 +934,10 @@
         <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
@@ -975,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -984,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.000</v>
+        <v>100.000</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1036,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1062,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1091,19 +1067,19 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.000</v>
+        <v>100.000</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1120,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.000</v>
+        <v>50.000</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1149,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1158,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.333</v>
+        <v>0.000</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1207,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1239,16 +1215,16 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.000</v>
+        <v>100.000</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1286,7 +1262,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -1297,7 +1273,7 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -1324,24 +1300,24 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -1352,10 +1328,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
         <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -1366,24 +1342,24 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -1394,30 +1370,44 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -1468,10 +1458,10 @@
         <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
@@ -1503,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -1514,10 +1504,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1546,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1561,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1572,19 +1562,19 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.000</v>
+        <v>33.333</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1601,10 +1591,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1630,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1659,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1668,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>100.000</v>
+        <v>0.000</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1688,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1717,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1726,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>100.000</v>
+        <v>0.000</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1796,7 +1786,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
@@ -1807,7 +1797,7 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
@@ -1834,41 +1824,41 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
         <v>49</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1876,13 +1866,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1890,13 +1880,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1904,44 +1894,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1960,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -1992,10 +1954,10 @@
         <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
@@ -2003,13 +1965,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -2018,24 +1980,24 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.000</v>
+        <v>100.000</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2056,21 +2018,21 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2082,50 +2044,50 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>66.667</v>
+        <v>50.000</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -2134,27 +2096,27 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>100.000</v>
+        <v>0.000</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -2163,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.000</v>
+        <v>100.000</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2177,13 +2139,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -2192,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>100.000</v>
+        <v>0.000</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2206,13 +2168,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -2221,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50.000</v>
+        <v>100.000</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2235,13 +2197,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -2264,13 +2226,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -2312,7 +2274,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -2320,10 +2282,10 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -2331,10 +2293,10 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -2358,13 +2320,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -2372,13 +2334,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2386,13 +2348,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2400,13 +2362,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2417,41 +2379,41 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2459,24 +2421,24 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -2498,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -2530,10 +2492,10 @@
         <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
@@ -2541,31 +2503,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>100.000</v>
+        <v>0.000</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -2576,30 +2538,30 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.000</v>
+        <v>50.000</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2623,21 +2585,21 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2646,47 +2608,47 @@
         <v>100.000</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.333</v>
+        <v>0.000</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2715,7 +2677,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2744,13 +2706,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -2759,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>100.000</v>
+        <v>0.000</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2773,7 +2735,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2782,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2800,123 +2762,108 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0.000</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2924,86 +2871,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3022,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -3054,10 +2931,10 @@
         <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
@@ -3065,7 +2942,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3080,16 +2957,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>100.000</v>
+        <v>0.000</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -3100,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -3109,27 +2986,27 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.000</v>
+        <v>100.000</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -3147,18 +3024,18 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -3170,27 +3047,27 @@
         <v>100.000</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3199,18 +3076,18 @@
         <v>100.000</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3225,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.000</v>
+        <v>100.000</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3239,7 +3116,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3268,7 +3145,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3295,138 +3172,108 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.000</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0.000</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
+        <v>53</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -3434,13 +3281,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -3448,13 +3295,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -3462,13 +3309,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3476,58 +3323,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
